--- a/data_trajectories.xlsx
+++ b/data_trajectories.xlsx
@@ -466,2124 +466,2124 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18042311</v>
+        <v>18042447</v>
       </c>
       <c r="B2" t="n">
         <v>9534</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>39480.78951388889</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D2" t="n">
-        <v>116.51125</v>
+        <v>116.57222</v>
       </c>
       <c r="E2" t="n">
-        <v>39.90647</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18042312</v>
+        <v>18042448</v>
       </c>
       <c r="B3" t="n">
         <v>9534</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>39480.79010416667</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D3" t="n">
-        <v>116.51904</v>
+        <v>116.57222</v>
       </c>
       <c r="E3" t="n">
-        <v>39.90744</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18042313</v>
+        <v>18042449</v>
       </c>
       <c r="B4" t="n">
         <v>9534</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>39480.79077546296</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D4" t="n">
-        <v>116.52318</v>
+        <v>116.57222</v>
       </c>
       <c r="E4" t="n">
-        <v>39.9082</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18042314</v>
+        <v>18042450</v>
       </c>
       <c r="B5" t="n">
         <v>9534</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>39480.79148148148</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D5" t="n">
-        <v>116.51684</v>
+        <v>116.57222</v>
       </c>
       <c r="E5" t="n">
-        <v>39.90768</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18042315</v>
+        <v>18042451</v>
       </c>
       <c r="B6" t="n">
         <v>9534</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>39480.79217592593</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D6" t="n">
-        <v>116.51568</v>
+        <v>116.57222</v>
       </c>
       <c r="E6" t="n">
-        <v>39.91348</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18042316</v>
+        <v>18042452</v>
       </c>
       <c r="B7" t="n">
         <v>9534</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>39480.79219907407</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D7" t="n">
-        <v>116.51568</v>
+        <v>116.57222</v>
       </c>
       <c r="E7" t="n">
-        <v>39.91357</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18042317</v>
+        <v>18042453</v>
       </c>
       <c r="B8" t="n">
         <v>9534</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>39480.79291666667</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D8" t="n">
-        <v>116.51523</v>
+        <v>116.57222</v>
       </c>
       <c r="E8" t="n">
-        <v>39.91534</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18042318</v>
+        <v>18042454</v>
       </c>
       <c r="B9" t="n">
         <v>9534</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>39480.79324074074</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D9" t="n">
-        <v>116.51527</v>
+        <v>116.57222</v>
       </c>
       <c r="E9" t="n">
-        <v>39.91537</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18042319</v>
+        <v>18042455</v>
       </c>
       <c r="B10" t="n">
         <v>9534</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>39480.79357638889</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D10" t="n">
-        <v>116.51526</v>
+        <v>116.57222</v>
       </c>
       <c r="E10" t="n">
-        <v>39.91556</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18042320</v>
+        <v>18042456</v>
       </c>
       <c r="B11" t="n">
         <v>9534</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>39480.79427083334</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D11" t="n">
-        <v>116.51163</v>
+        <v>116.57222</v>
       </c>
       <c r="E11" t="n">
-        <v>39.91539</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18042321</v>
+        <v>18042457</v>
       </c>
       <c r="B12" t="n">
         <v>9534</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>39480.79490740741</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D12" t="n">
-        <v>116.50618</v>
+        <v>116.57222</v>
       </c>
       <c r="E12" t="n">
-        <v>39.91506</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18042322</v>
+        <v>18042458</v>
       </c>
       <c r="B13" t="n">
         <v>9534</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>39480.79549768518</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D13" t="n">
-        <v>116.50502</v>
+        <v>116.57222</v>
       </c>
       <c r="E13" t="n">
-        <v>39.91482</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18042323</v>
+        <v>18042459</v>
       </c>
       <c r="B14" t="n">
         <v>9534</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>39480.7956712963</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D14" t="n">
-        <v>116.50526</v>
+        <v>116.57222</v>
       </c>
       <c r="E14" t="n">
-        <v>39.91489</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18042324</v>
+        <v>18042460</v>
       </c>
       <c r="B15" t="n">
         <v>9534</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>39480.79636574074</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D15" t="n">
-        <v>116.51067</v>
+        <v>116.57222</v>
       </c>
       <c r="E15" t="n">
-        <v>39.91529</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18042325</v>
+        <v>18042461</v>
       </c>
       <c r="B16" t="n">
         <v>9534</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>39480.79673611111</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D16" t="n">
-        <v>116.51128</v>
+        <v>116.57222</v>
       </c>
       <c r="E16" t="n">
-        <v>39.9153</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18042326</v>
+        <v>18042462</v>
       </c>
       <c r="B17" t="n">
         <v>9534</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>39480.79706018518</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D17" t="n">
-        <v>116.51264</v>
+        <v>116.57222</v>
       </c>
       <c r="E17" t="n">
-        <v>39.91547</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18042327</v>
+        <v>18042463</v>
       </c>
       <c r="B18" t="n">
         <v>9534</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>39480.7977662037</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D18" t="n">
-        <v>116.51559</v>
+        <v>116.57222</v>
       </c>
       <c r="E18" t="n">
-        <v>39.91348</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18042328</v>
+        <v>18042464</v>
       </c>
       <c r="B19" t="n">
         <v>9534</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>39480.79789351852</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D19" t="n">
-        <v>116.51589</v>
+        <v>116.57222</v>
       </c>
       <c r="E19" t="n">
-        <v>39.91239</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18042329</v>
+        <v>18042465</v>
       </c>
       <c r="B20" t="n">
         <v>9534</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>39480.79848379629</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D20" t="n">
-        <v>116.51669</v>
+        <v>116.57222</v>
       </c>
       <c r="E20" t="n">
-        <v>39.90786</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18042330</v>
+        <v>18042466</v>
       </c>
       <c r="B21" t="n">
         <v>9534</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>39480.79915509259</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D21" t="n">
-        <v>116.51139</v>
+        <v>116.57222</v>
       </c>
       <c r="E21" t="n">
-        <v>39.90677</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>18042331</v>
+        <v>18042467</v>
       </c>
       <c r="B22" t="n">
         <v>9534</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>39480.79986111111</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D22" t="n">
-        <v>116.50935</v>
+        <v>116.57222</v>
       </c>
       <c r="E22" t="n">
-        <v>39.90696</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>18042332</v>
+        <v>18042468</v>
       </c>
       <c r="B23" t="n">
         <v>9534</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>39480.80055555556</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D23" t="n">
-        <v>116.50943</v>
+        <v>116.57222</v>
       </c>
       <c r="E23" t="n">
-        <v>39.90691</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18042333</v>
+        <v>18042469</v>
       </c>
       <c r="B24" t="n">
         <v>9534</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>39480.80092592593</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D24" t="n">
-        <v>116.50939</v>
+        <v>116.57222</v>
       </c>
       <c r="E24" t="n">
-        <v>39.90694</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>18042334</v>
+        <v>18042470</v>
       </c>
       <c r="B25" t="n">
         <v>9534</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>39480.8016087963</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D25" t="n">
-        <v>116.50518</v>
+        <v>116.57222</v>
       </c>
       <c r="E25" t="n">
-        <v>39.90716</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>18042335</v>
+        <v>18042471</v>
       </c>
       <c r="B26" t="n">
         <v>9534</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>39480.80429398148</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D26" t="n">
-        <v>116.50728</v>
+        <v>116.57222</v>
       </c>
       <c r="E26" t="n">
-        <v>39.915</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>18042336</v>
+        <v>18042472</v>
       </c>
       <c r="B27" t="n">
         <v>9534</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>39480.80510416667</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D27" t="n">
-        <v>116.511</v>
+        <v>116.57222</v>
       </c>
       <c r="E27" t="n">
-        <v>39.91524</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18042337</v>
+        <v>18042473</v>
       </c>
       <c r="B28" t="n">
         <v>9534</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>39480.80767361111</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D28" t="n">
-        <v>116.51226</v>
+        <v>116.57222</v>
       </c>
       <c r="E28" t="n">
-        <v>39.91681</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18042338</v>
+        <v>18042474</v>
       </c>
       <c r="B29" t="n">
         <v>9534</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>39480.80859953703</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D29" t="n">
-        <v>116.51182</v>
+        <v>116.57222</v>
       </c>
       <c r="E29" t="n">
-        <v>39.92097</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18042339</v>
+        <v>18042475</v>
       </c>
       <c r="B30" t="n">
         <v>9534</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>39480.8087962963</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D30" t="n">
-        <v>116.51182</v>
+        <v>116.57222</v>
       </c>
       <c r="E30" t="n">
-        <v>39.92103</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18042340</v>
+        <v>18042476</v>
       </c>
       <c r="B31" t="n">
         <v>9534</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>39480.81023148148</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D31" t="n">
-        <v>116.51135</v>
+        <v>116.57222</v>
       </c>
       <c r="E31" t="n">
-        <v>39.92607</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18042341</v>
+        <v>18042477</v>
       </c>
       <c r="B32" t="n">
         <v>9534</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>39480.81115740741</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D32" t="n">
-        <v>116.50956</v>
+        <v>116.57222</v>
       </c>
       <c r="E32" t="n">
-        <v>39.93368</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18042342</v>
+        <v>18042478</v>
       </c>
       <c r="B33" t="n">
         <v>9534</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>39480.81174768518</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D33" t="n">
-        <v>116.5092</v>
+        <v>116.57222</v>
       </c>
       <c r="E33" t="n">
-        <v>39.93379</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18042343</v>
+        <v>18042479</v>
       </c>
       <c r="B34" t="n">
         <v>9534</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>39480.81209490741</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D34" t="n">
-        <v>116.51016</v>
+        <v>116.57222</v>
       </c>
       <c r="E34" t="n">
-        <v>39.93367</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18042344</v>
+        <v>18042480</v>
       </c>
       <c r="B35" t="n">
         <v>9534</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>39480.81231481482</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D35" t="n">
-        <v>116.51122</v>
+        <v>116.57222</v>
       </c>
       <c r="E35" t="n">
-        <v>39.93298</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18042345</v>
+        <v>18042481</v>
       </c>
       <c r="B36" t="n">
         <v>9534</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>39480.81244212963</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D36" t="n">
-        <v>116.51123</v>
+        <v>116.57222</v>
       </c>
       <c r="E36" t="n">
-        <v>39.93187</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18042346</v>
+        <v>18042482</v>
       </c>
       <c r="B37" t="n">
         <v>9534</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>39480.81302083333</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D37" t="n">
-        <v>116.51121</v>
+        <v>116.57222</v>
       </c>
       <c r="E37" t="n">
-        <v>39.9293</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18042347</v>
+        <v>18042483</v>
       </c>
       <c r="B38" t="n">
         <v>9534</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>39480.81371527778</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D38" t="n">
-        <v>116.51137</v>
+        <v>116.57222</v>
       </c>
       <c r="E38" t="n">
-        <v>39.92288</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18042348</v>
+        <v>18042484</v>
       </c>
       <c r="B39" t="n">
         <v>9534</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>39480.81445601852</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D39" t="n">
-        <v>116.51136</v>
+        <v>116.57222</v>
       </c>
       <c r="E39" t="n">
-        <v>39.92236</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18042349</v>
+        <v>18042485</v>
       </c>
       <c r="B40" t="n">
         <v>9534</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>39480.81510416666</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D40" t="n">
-        <v>116.51131</v>
+        <v>116.57222</v>
       </c>
       <c r="E40" t="n">
-        <v>39.92223</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18042350</v>
+        <v>18042486</v>
       </c>
       <c r="B41" t="n">
         <v>9534</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>39480.81534722223</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D41" t="n">
-        <v>116.51153</v>
+        <v>116.57222</v>
       </c>
       <c r="E41" t="n">
-        <v>39.9222</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18042351</v>
+        <v>18042487</v>
       </c>
       <c r="B42" t="n">
         <v>9534</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>39480.8155787037</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D42" t="n">
-        <v>116.5116</v>
+        <v>116.57222</v>
       </c>
       <c r="E42" t="n">
-        <v>39.92256</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18042352</v>
+        <v>18042488</v>
       </c>
       <c r="B43" t="n">
         <v>9534</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>39480.81697916667</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D43" t="n">
-        <v>116.5114</v>
+        <v>116.57222</v>
       </c>
       <c r="E43" t="n">
-        <v>39.93624</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18042353</v>
+        <v>18042489</v>
       </c>
       <c r="B44" t="n">
         <v>9534</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>39480.81895833334</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D44" t="n">
-        <v>116.49801</v>
+        <v>116.57222</v>
       </c>
       <c r="E44" t="n">
-        <v>39.93549</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18042354</v>
+        <v>18042490</v>
       </c>
       <c r="B45" t="n">
         <v>9534</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>39480.81907407408</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D45" t="n">
-        <v>116.49804</v>
+        <v>116.57222</v>
       </c>
       <c r="E45" t="n">
-        <v>39.93549</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18042355</v>
+        <v>18042491</v>
       </c>
       <c r="B46" t="n">
         <v>9534</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>39480.8209375</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D46" t="n">
-        <v>116.49756</v>
+        <v>116.57222</v>
       </c>
       <c r="E46" t="n">
-        <v>39.93536</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18042356</v>
+        <v>18042492</v>
       </c>
       <c r="B47" t="n">
         <v>9534</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>39480.82256944444</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D47" t="n">
-        <v>116.49696</v>
+        <v>116.57222</v>
       </c>
       <c r="E47" t="n">
-        <v>39.9351</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18042357</v>
+        <v>18042493</v>
       </c>
       <c r="B48" t="n">
         <v>9534</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>39480.82559027777</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D48" t="n">
-        <v>116.49594</v>
+        <v>116.57222</v>
       </c>
       <c r="E48" t="n">
-        <v>39.93119</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18042358</v>
+        <v>18042494</v>
       </c>
       <c r="B49" t="n">
         <v>9534</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>39480.82605324074</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D49" t="n">
-        <v>116.49796</v>
+        <v>116.57222</v>
       </c>
       <c r="E49" t="n">
-        <v>39.93028</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>18042359</v>
+        <v>18042495</v>
       </c>
       <c r="B50" t="n">
         <v>9534</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>39480.8283912037</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D50" t="n">
-        <v>116.50235</v>
+        <v>116.57222</v>
       </c>
       <c r="E50" t="n">
-        <v>39.92634</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18042360</v>
+        <v>18042496</v>
       </c>
       <c r="B51" t="n">
         <v>9534</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>39480.82914351852</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D51" t="n">
-        <v>116.50289</v>
+        <v>116.57222</v>
       </c>
       <c r="E51" t="n">
-        <v>39.92535</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18042361</v>
+        <v>18042497</v>
       </c>
       <c r="B52" t="n">
         <v>9534</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>39480.82954861111</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D52" t="n">
-        <v>116.50289</v>
+        <v>116.57222</v>
       </c>
       <c r="E52" t="n">
-        <v>39.92534</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18042362</v>
+        <v>18042498</v>
       </c>
       <c r="B53" t="n">
         <v>9534</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>39480.82983796296</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D53" t="n">
-        <v>116.50285</v>
+        <v>116.57222</v>
       </c>
       <c r="E53" t="n">
-        <v>39.9245</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18042363</v>
+        <v>18042499</v>
       </c>
       <c r="B54" t="n">
         <v>9534</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>39480.83054398148</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D54" t="n">
-        <v>116.50281</v>
+        <v>116.57222</v>
       </c>
       <c r="E54" t="n">
-        <v>39.92395</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>18042364</v>
+        <v>18042500</v>
       </c>
       <c r="B55" t="n">
         <v>9534</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>39480.83101851852</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D55" t="n">
-        <v>116.50281</v>
+        <v>116.57222</v>
       </c>
       <c r="E55" t="n">
-        <v>39.92398</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18042365</v>
+        <v>18042501</v>
       </c>
       <c r="B56" t="n">
         <v>9534</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>39480.83159722222</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D56" t="n">
-        <v>116.50172</v>
+        <v>116.57222</v>
       </c>
       <c r="E56" t="n">
-        <v>39.92208</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18042366</v>
+        <v>18042502</v>
       </c>
       <c r="B57" t="n">
         <v>9534</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>39480.83159722222</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D57" t="n">
-        <v>116.50172</v>
+        <v>116.57222</v>
       </c>
       <c r="E57" t="n">
-        <v>39.92208</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18042367</v>
+        <v>18042503</v>
       </c>
       <c r="B58" t="n">
         <v>9534</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>39480.83193287037</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D58" t="n">
-        <v>116.49919</v>
+        <v>116.57222</v>
       </c>
       <c r="E58" t="n">
-        <v>39.92196</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18042368</v>
+        <v>18042504</v>
       </c>
       <c r="B59" t="n">
         <v>9534</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>39480.83263888889</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D59" t="n">
-        <v>116.49555</v>
+        <v>116.57222</v>
       </c>
       <c r="E59" t="n">
-        <v>39.92185</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18042369</v>
+        <v>18042505</v>
       </c>
       <c r="B60" t="n">
         <v>9534</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>39480.83304398148</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D60" t="n">
-        <v>116.49292</v>
+        <v>116.57222</v>
       </c>
       <c r="E60" t="n">
-        <v>39.92187</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>18042370</v>
+        <v>18042506</v>
       </c>
       <c r="B61" t="n">
         <v>9534</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>39480.83333333334</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D61" t="n">
-        <v>116.49071</v>
+        <v>116.57222</v>
       </c>
       <c r="E61" t="n">
-        <v>39.92181</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18042371</v>
+        <v>18042507</v>
       </c>
       <c r="B62" t="n">
         <v>9534</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>39480.83396990741</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D62" t="n">
-        <v>116.48305</v>
+        <v>116.57222</v>
       </c>
       <c r="E62" t="n">
-        <v>39.9217</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18042372</v>
+        <v>18042508</v>
       </c>
       <c r="B63" t="n">
         <v>9534</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>39480.83456018518</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D63" t="n">
-        <v>116.48031</v>
+        <v>116.57222</v>
       </c>
       <c r="E63" t="n">
-        <v>39.92172</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>18042373</v>
+        <v>18042509</v>
       </c>
       <c r="B64" t="n">
         <v>9534</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>39480.8347337963</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D64" t="n">
-        <v>116.48018</v>
+        <v>116.57222</v>
       </c>
       <c r="E64" t="n">
-        <v>39.9217</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>18042374</v>
+        <v>18042510</v>
       </c>
       <c r="B65" t="n">
         <v>9534</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>39480.8347337963</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D65" t="n">
-        <v>116.48018</v>
+        <v>116.57222</v>
       </c>
       <c r="E65" t="n">
-        <v>39.9217</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>18042375</v>
+        <v>18042511</v>
       </c>
       <c r="B66" t="n">
         <v>9534</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>39480.83519675926</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D66" t="n">
-        <v>116.47997</v>
+        <v>116.57222</v>
       </c>
       <c r="E66" t="n">
-        <v>39.92173</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>18042376</v>
+        <v>18042512</v>
       </c>
       <c r="B67" t="n">
         <v>9534</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>39480.83587962963</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D67" t="n">
-        <v>116.47911</v>
+        <v>116.57222</v>
       </c>
       <c r="E67" t="n">
-        <v>39.92181</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18042377</v>
+        <v>18042513</v>
       </c>
       <c r="B68" t="n">
         <v>9534</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>39480.83657407408</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D68" t="n">
-        <v>116.47941</v>
+        <v>116.57222</v>
       </c>
       <c r="E68" t="n">
-        <v>39.92166</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>18042378</v>
+        <v>18042514</v>
       </c>
       <c r="B69" t="n">
         <v>9534</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>39480.83700231482</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D69" t="n">
-        <v>116.48339</v>
+        <v>116.57222</v>
       </c>
       <c r="E69" t="n">
-        <v>39.92142</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>18042379</v>
+        <v>18042515</v>
       </c>
       <c r="B70" t="n">
         <v>9534</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>39480.83758101852</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D70" t="n">
-        <v>116.48362</v>
+        <v>116.57222</v>
       </c>
       <c r="E70" t="n">
-        <v>39.91596</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>18042380</v>
+        <v>18042516</v>
       </c>
       <c r="B71" t="n">
         <v>9534</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>39480.83796296296</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D71" t="n">
-        <v>116.48361</v>
+        <v>116.57222</v>
       </c>
       <c r="E71" t="n">
-        <v>39.91292</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>18042381</v>
+        <v>18042517</v>
       </c>
       <c r="B72" t="n">
         <v>9534</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>39480.83865740741</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D72" t="n">
-        <v>116.48293</v>
+        <v>116.57222</v>
       </c>
       <c r="E72" t="n">
-        <v>39.90678</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>18042382</v>
+        <v>18042518</v>
       </c>
       <c r="B73" t="n">
         <v>9534</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>39480.83935185185</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D73" t="n">
-        <v>116.48264</v>
+        <v>116.57222</v>
       </c>
       <c r="E73" t="n">
-        <v>39.90519</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>18042383</v>
+        <v>18042519</v>
       </c>
       <c r="B74" t="n">
         <v>9534</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>39480.8400462963</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D74" t="n">
-        <v>116.4889</v>
+        <v>116.57222</v>
       </c>
       <c r="E74" t="n">
-        <v>39.90649</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>18042384</v>
+        <v>18042520</v>
       </c>
       <c r="B75" t="n">
         <v>9534</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>39480.84037037037</v>
+        <v>39480.87635416666</v>
       </c>
       <c r="D75" t="n">
-        <v>116.48908</v>
+        <v>116.57222</v>
       </c>
       <c r="E75" t="n">
-        <v>39.90651</v>
+        <v>39.91901</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>18042385</v>
+        <v>18042521</v>
       </c>
       <c r="B76" t="n">
         <v>9534</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>39480.84096064815</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D76" t="n">
-        <v>116.48992</v>
+        <v>116.57215</v>
       </c>
       <c r="E76" t="n">
-        <v>39.90653</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>18042386</v>
+        <v>18042522</v>
       </c>
       <c r="B77" t="n">
         <v>9534</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>39480.84143518518</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D77" t="n">
-        <v>116.49351</v>
+        <v>116.57215</v>
       </c>
       <c r="E77" t="n">
-        <v>39.90654</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18042387</v>
+        <v>18042523</v>
       </c>
       <c r="B78" t="n">
         <v>9534</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>39480.84282407408</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D78" t="n">
-        <v>116.50922</v>
+        <v>116.57215</v>
       </c>
       <c r="E78" t="n">
-        <v>39.90633</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>18042388</v>
+        <v>18042524</v>
       </c>
       <c r="B79" t="n">
         <v>9534</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>39480.84305555555</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D79" t="n">
-        <v>116.50946</v>
+        <v>116.57215</v>
       </c>
       <c r="E79" t="n">
-        <v>39.90635</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>18042389</v>
+        <v>18042525</v>
       </c>
       <c r="B80" t="n">
         <v>9534</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>39480.84351851852</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D80" t="n">
-        <v>116.51474</v>
+        <v>116.57215</v>
       </c>
       <c r="E80" t="n">
-        <v>39.9066</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>18042390</v>
+        <v>18042526</v>
       </c>
       <c r="B81" t="n">
         <v>9534</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>39480.84375</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D81" t="n">
-        <v>116.51769</v>
+        <v>116.57215</v>
       </c>
       <c r="E81" t="n">
-        <v>39.9072</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>18042391</v>
+        <v>18042527</v>
       </c>
       <c r="B82" t="n">
         <v>9534</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>39480.8443287037</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D82" t="n">
-        <v>116.52234</v>
+        <v>116.57215</v>
       </c>
       <c r="E82" t="n">
-        <v>39.90799</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>18042392</v>
+        <v>18042528</v>
       </c>
       <c r="B83" t="n">
         <v>9534</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>39480.84490740741</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D83" t="n">
-        <v>116.52253</v>
+        <v>116.57215</v>
       </c>
       <c r="E83" t="n">
-        <v>39.90853</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>18042393</v>
+        <v>18042529</v>
       </c>
       <c r="B84" t="n">
         <v>9534</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>39480.84548611111</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D84" t="n">
-        <v>116.51757</v>
+        <v>116.57215</v>
       </c>
       <c r="E84" t="n">
-        <v>39.90778</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18042394</v>
+        <v>18042530</v>
       </c>
       <c r="B85" t="n">
         <v>9534</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>39480.84584490741</v>
+        <v>39480.91690972223</v>
       </c>
       <c r="D85" t="n">
-        <v>116.51649</v>
+        <v>116.57215</v>
       </c>
       <c r="E85" t="n">
-        <v>39.90941</v>
+        <v>39.9191</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>18042395</v>
+        <v>18042531</v>
       </c>
       <c r="B86" t="n">
         <v>9534</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>39480.84630787037</v>
+        <v>39480.93530092593</v>
       </c>
       <c r="D86" t="n">
-        <v>116.51567</v>
+        <v>116.57211</v>
       </c>
       <c r="E86" t="n">
-        <v>39.91354</v>
+        <v>39.91893</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>18042396</v>
+        <v>18042532</v>
       </c>
       <c r="B87" t="n">
         <v>9534</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>39480.84689814815</v>
+        <v>39480.93564814814</v>
       </c>
       <c r="D87" t="n">
-        <v>116.5155</v>
+        <v>116.57144</v>
       </c>
       <c r="E87" t="n">
-        <v>39.91416</v>
+        <v>39.91829</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>18042397</v>
+        <v>18042533</v>
       </c>
       <c r="B88" t="n">
         <v>9534</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>39480.84700231482</v>
+        <v>39480.93564814814</v>
       </c>
       <c r="D88" t="n">
-        <v>116.51553</v>
+        <v>116.57144</v>
       </c>
       <c r="E88" t="n">
-        <v>39.91443</v>
+        <v>39.91829</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>18042398</v>
+        <v>18042534</v>
       </c>
       <c r="B89" t="n">
         <v>9534</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>39480.84724537037</v>
+        <v>39480.93625</v>
       </c>
       <c r="D89" t="n">
-        <v>116.51552</v>
+        <v>116.57198</v>
       </c>
       <c r="E89" t="n">
-        <v>39.91491</v>
+        <v>39.91588</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>18042399</v>
+        <v>18042535</v>
       </c>
       <c r="B90" t="n">
         <v>9534</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>39480.84782407407</v>
+        <v>39480.93670138889</v>
       </c>
       <c r="D90" t="n">
-        <v>116.51537</v>
+        <v>116.57118</v>
       </c>
       <c r="E90" t="n">
-        <v>39.91492</v>
+        <v>39.91392</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>18042400</v>
+        <v>18042536</v>
       </c>
       <c r="B91" t="n">
         <v>9534</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>39480.84796296297</v>
+        <v>39480.93739583333</v>
       </c>
       <c r="D91" t="n">
-        <v>116.51541</v>
+        <v>116.57084</v>
       </c>
       <c r="E91" t="n">
-        <v>39.91493</v>
+        <v>39.91335</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18042401</v>
+        <v>18042537</v>
       </c>
       <c r="B92" t="n">
         <v>9534</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>39480.84851851852</v>
+        <v>39480.93785879629</v>
       </c>
       <c r="D92" t="n">
-        <v>116.51506</v>
+        <v>116.57076</v>
       </c>
       <c r="E92" t="n">
-        <v>39.9163</v>
+        <v>39.91063</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>18042402</v>
+        <v>18042538</v>
       </c>
       <c r="B93" t="n">
         <v>9534</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>39480.84912037037</v>
+        <v>39480.93832175926</v>
       </c>
       <c r="D93" t="n">
-        <v>116.51501</v>
+        <v>116.56744</v>
       </c>
       <c r="E93" t="n">
-        <v>39.92074</v>
+        <v>39.90905</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>18042403</v>
+        <v>18042539</v>
       </c>
       <c r="B94" t="n">
         <v>9534</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>39480.84934027777</v>
+        <v>39480.93890046296</v>
       </c>
       <c r="D94" t="n">
-        <v>116.51499</v>
+        <v>116.56088</v>
       </c>
       <c r="E94" t="n">
-        <v>39.92168</v>
+        <v>39.90862</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>18042404</v>
+        <v>18042540</v>
       </c>
       <c r="B95" t="n">
         <v>9534</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>39480.84980324074</v>
+        <v>39480.93949074074</v>
       </c>
       <c r="D95" t="n">
-        <v>116.51495</v>
+        <v>116.55402</v>
       </c>
       <c r="E95" t="n">
-        <v>39.92175</v>
+        <v>39.90853</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>18042405</v>
+        <v>18042541</v>
       </c>
       <c r="B96" t="n">
         <v>9534</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>39480.85038194444</v>
+        <v>39480.94018518519</v>
       </c>
       <c r="D96" t="n">
-        <v>116.5128</v>
+        <v>116.54614</v>
       </c>
       <c r="E96" t="n">
-        <v>39.92203</v>
+        <v>39.90845</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>18042406</v>
+        <v>18042542</v>
       </c>
       <c r="B97" t="n">
         <v>9534</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>39480.85049768518</v>
+        <v>39480.9408912037</v>
       </c>
       <c r="D97" t="n">
-        <v>116.51182</v>
+        <v>116.53917</v>
       </c>
       <c r="E97" t="n">
-        <v>39.92204</v>
+        <v>39.90984</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>18042407</v>
+        <v>18042543</v>
       </c>
       <c r="B98" t="n">
         <v>9534</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>39480.85074074074</v>
+        <v>39480.94099537037</v>
       </c>
       <c r="D98" t="n">
-        <v>116.51132</v>
+        <v>116.53798</v>
       </c>
       <c r="E98" t="n">
-        <v>39.92384</v>
+        <v>39.90983</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>18042408</v>
+        <v>18042544</v>
       </c>
       <c r="B99" t="n">
         <v>9534</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>39480.85143518518</v>
+        <v>39480.9413425926</v>
       </c>
       <c r="D99" t="n">
-        <v>116.51131</v>
+        <v>116.53434</v>
       </c>
       <c r="E99" t="n">
-        <v>39.9308</v>
+        <v>39.90875</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>18042409</v>
+        <v>18042545</v>
       </c>
       <c r="B100" t="n">
         <v>9534</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>39480.85201388889</v>
+        <v>39480.94172453704</v>
       </c>
       <c r="D100" t="n">
-        <v>116.50988</v>
+        <v>116.52961</v>
       </c>
       <c r="E100" t="n">
-        <v>39.93364</v>
+        <v>39.90854</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>18042410</v>
+        <v>18042546</v>
       </c>
       <c r="B101" t="n">
         <v>9534</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>39480.85364583333</v>
+        <v>39480.94228009259</v>
       </c>
       <c r="D101" t="n">
-        <v>116.51105</v>
+        <v>116.52472</v>
       </c>
       <c r="E101" t="n">
-        <v>39.93362</v>
+        <v>39.90862</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>18042411</v>
+        <v>18042547</v>
       </c>
       <c r="B102" t="n">
         <v>9534</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>39480.85399305556</v>
+        <v>39480.94228009259</v>
       </c>
       <c r="D102" t="n">
-        <v>116.51127</v>
+        <v>116.52472</v>
       </c>
       <c r="E102" t="n">
-        <v>39.93143</v>
+        <v>39.90862</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>18042412</v>
+        <v>18042548</v>
       </c>
       <c r="B103" t="n">
         <v>9534</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>39480.85493055556</v>
+        <v>39480.94298611111</v>
       </c>
       <c r="D103" t="n">
-        <v>116.51129</v>
+        <v>116.52239</v>
       </c>
       <c r="E103" t="n">
-        <v>39.92414</v>
+        <v>39.91164</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>18042413</v>
+        <v>18042549</v>
       </c>
       <c r="B104" t="n">
         <v>9534</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>39480.85576388889</v>
+        <v>39480.94368055555</v>
       </c>
       <c r="D104" t="n">
-        <v>116.51145</v>
+        <v>116.51625</v>
       </c>
       <c r="E104" t="n">
-        <v>39.92266</v>
+        <v>39.9112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>18042414</v>
+        <v>18042550</v>
       </c>
       <c r="B105" t="n">
         <v>9534</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>39480.85631944444</v>
+        <v>39480.94460648148</v>
       </c>
       <c r="D105" t="n">
-        <v>116.51159</v>
+        <v>116.51648</v>
       </c>
       <c r="E105" t="n">
-        <v>39.9222</v>
+        <v>39.90933</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>18042415</v>
+        <v>18042551</v>
       </c>
       <c r="B106" t="n">
         <v>9534</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>39480.85701388889</v>
+        <v>39480.94483796296</v>
       </c>
       <c r="D106" t="n">
-        <v>116.5115</v>
+        <v>116.51638</v>
       </c>
       <c r="E106" t="n">
-        <v>39.92222</v>
+        <v>39.90936</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>18042416</v>
+        <v>18042552</v>
       </c>
       <c r="B107" t="n">
         <v>9534</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>39480.85760416667</v>
+        <v>39480.94508101852</v>
       </c>
       <c r="D107" t="n">
-        <v>116.51162</v>
+        <v>116.51649</v>
       </c>
       <c r="E107" t="n">
-        <v>39.9221</v>
+        <v>39.90933</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>18042417</v>
+        <v>18042553</v>
       </c>
       <c r="B108" t="n">
         <v>9534</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>39480.85774305555</v>
+        <v>39480.94577546296</v>
       </c>
       <c r="D108" t="n">
-        <v>116.51223</v>
+        <v>116.5164</v>
       </c>
       <c r="E108" t="n">
-        <v>39.92182</v>
+        <v>39.90907</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>18042418</v>
+        <v>18042554</v>
       </c>
       <c r="B109" t="n">
         <v>9534</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>39480.85841435185</v>
+        <v>39480.94646990741</v>
       </c>
       <c r="D109" t="n">
-        <v>116.51643</v>
+        <v>116.51646</v>
       </c>
       <c r="E109" t="n">
-        <v>39.92258</v>
+        <v>39.9091</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>18042419</v>
+        <v>18042555</v>
       </c>
       <c r="B110" t="n">
         <v>9534</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>39480.85841435185</v>
+        <v>39480.94704861111</v>
       </c>
       <c r="D110" t="n">
-        <v>116.51643</v>
+        <v>116.51647</v>
       </c>
       <c r="E110" t="n">
-        <v>39.92258</v>
+        <v>39.90919</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18042420</v>
+        <v>18042556</v>
       </c>
       <c r="B111" t="n">
         <v>9534</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>39480.85912037037</v>
+        <v>39480.94763888889</v>
       </c>
       <c r="D111" t="n">
-        <v>116.52419</v>
+        <v>116.51643</v>
       </c>
       <c r="E111" t="n">
-        <v>39.92247</v>
+        <v>39.90914</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>18042421</v>
+        <v>18042557</v>
       </c>
       <c r="B112" t="n">
         <v>9534</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>39480.85934027778</v>
+        <v>39480.94787037037</v>
       </c>
       <c r="D112" t="n">
-        <v>116.52545</v>
+        <v>116.51642</v>
       </c>
       <c r="E112" t="n">
-        <v>39.92239</v>
+        <v>39.90924</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>18042422</v>
+        <v>18042558</v>
       </c>
       <c r="B113" t="n">
         <v>9534</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>39480.86097222222</v>
+        <v>39480.94833333333</v>
       </c>
       <c r="D113" t="n">
-        <v>116.54653</v>
+        <v>116.51639</v>
       </c>
       <c r="E113" t="n">
-        <v>39.92262</v>
+        <v>39.90919</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>18042423</v>
+        <v>18042559</v>
       </c>
       <c r="B114" t="n">
         <v>9534</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>39480.86167824074</v>
+        <v>39480.94856481482</v>
       </c>
       <c r="D114" t="n">
-        <v>116.55144</v>
+        <v>116.51643</v>
       </c>
       <c r="E114" t="n">
-        <v>39.92276</v>
+        <v>39.90919</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>18042424</v>
+        <v>18042560</v>
       </c>
       <c r="B115" t="n">
         <v>9534</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>39480.86435185185</v>
+        <v>39480.94927083333</v>
       </c>
       <c r="D115" t="n">
-        <v>116.55718</v>
+        <v>116.51644</v>
       </c>
       <c r="E115" t="n">
-        <v>39.91463</v>
+        <v>39.90916</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>18042425</v>
+        <v>18042561</v>
       </c>
       <c r="B116" t="n">
         <v>9534</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>39480.86446759259</v>
+        <v>39480.94996527778</v>
       </c>
       <c r="D116" t="n">
-        <v>116.55719</v>
+        <v>116.51649</v>
       </c>
       <c r="E116" t="n">
-        <v>39.91467</v>
+        <v>39.90918</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>18042426</v>
+        <v>18042562</v>
       </c>
       <c r="B117" t="n">
         <v>9534</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>39480.86446759259</v>
+        <v>39480.95045138889</v>
       </c>
       <c r="D117" t="n">
-        <v>116.55719</v>
+        <v>116.51652</v>
       </c>
       <c r="E117" t="n">
-        <v>39.91467</v>
+        <v>39.90905</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>18042427</v>
+        <v>18042563</v>
       </c>
       <c r="B118" t="n">
         <v>9534</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>39480.86601851852</v>
+        <v>39480.95104166667</v>
       </c>
       <c r="D118" t="n">
-        <v>116.55646</v>
+        <v>116.51488</v>
       </c>
       <c r="E118" t="n">
-        <v>39.911</v>
+        <v>39.90728</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>18042428</v>
+        <v>18042564</v>
       </c>
       <c r="B119" t="n">
         <v>9534</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>39480.86671296296</v>
+        <v>39480.95136574074</v>
       </c>
       <c r="D119" t="n">
-        <v>116.55667</v>
+        <v>116.5113</v>
       </c>
       <c r="E119" t="n">
-        <v>39.90883</v>
+        <v>39.90677</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>18042429</v>
+        <v>18042565</v>
       </c>
       <c r="B120" t="n">
         <v>9534</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>39480.86712962963</v>
+        <v>39480.95184027778</v>
       </c>
       <c r="D120" t="n">
-        <v>116.55419</v>
+        <v>116.50819</v>
       </c>
       <c r="E120" t="n">
-        <v>39.9085</v>
+        <v>39.90687</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>18042430</v>
+        <v>18042566</v>
       </c>
       <c r="B121" t="n">
         <v>9534</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>39480.86770833333</v>
+        <v>39480.95253472222</v>
       </c>
       <c r="D121" t="n">
-        <v>116.54883</v>
+        <v>116.50812</v>
       </c>
       <c r="E121" t="n">
-        <v>39.90865</v>
+        <v>39.90825</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>18042431</v>
+        <v>18042567</v>
       </c>
       <c r="B122" t="n">
         <v>9534</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>39480.86811342592</v>
+        <v>39480.95322916667</v>
       </c>
       <c r="D122" t="n">
-        <v>116.54858</v>
+        <v>116.50619</v>
       </c>
       <c r="E122" t="n">
-        <v>39.91099</v>
+        <v>39.91121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>18042432</v>
+        <v>18042568</v>
       </c>
       <c r="B123" t="n">
         <v>9534</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>39480.86880787037</v>
+        <v>39480.95392361111</v>
       </c>
       <c r="D123" t="n">
-        <v>116.54819</v>
+        <v>116.50476</v>
       </c>
       <c r="E123" t="n">
-        <v>39.91445</v>
+        <v>39.91316</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>18042433</v>
+        <v>18042569</v>
       </c>
       <c r="B124" t="n">
         <v>9534</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>39480.86951388889</v>
+        <v>39480.95451388889</v>
       </c>
       <c r="D124" t="n">
-        <v>116.54838</v>
+        <v>116.50464</v>
       </c>
       <c r="E124" t="n">
-        <v>39.91482</v>
+        <v>39.91473</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>18042434</v>
+        <v>18042570</v>
       </c>
       <c r="B125" t="n">
         <v>9534</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>39480.87006944444</v>
+        <v>39480.95465277778</v>
       </c>
       <c r="D125" t="n">
-        <v>116.55349</v>
+        <v>116.50515</v>
       </c>
       <c r="E125" t="n">
-        <v>39.91488</v>
+        <v>39.9148</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>18042435</v>
+        <v>18042571</v>
       </c>
       <c r="B126" t="n">
         <v>9534</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>39480.87064814815</v>
+        <v>39480.95484953704</v>
       </c>
       <c r="D126" t="n">
-        <v>116.55778</v>
+        <v>116.50656</v>
       </c>
       <c r="E126" t="n">
         <v>39.91497</v>
@@ -2591,189 +2591,189 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>18042436</v>
+        <v>18042572</v>
       </c>
       <c r="B127" t="n">
         <v>9534</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>39480.87090277778</v>
+        <v>39480.95542824074</v>
       </c>
       <c r="D127" t="n">
-        <v>116.56023</v>
+        <v>116.51115</v>
       </c>
       <c r="E127" t="n">
-        <v>39.9148</v>
+        <v>39.91543</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>18042437</v>
+        <v>18042573</v>
       </c>
       <c r="B128" t="n">
         <v>9534</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>39480.87144675926</v>
+        <v>39480.95600694444</v>
       </c>
       <c r="D128" t="n">
-        <v>116.56487</v>
+        <v>116.51228</v>
       </c>
       <c r="E128" t="n">
-        <v>39.91446</v>
+        <v>39.91569</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>18042438</v>
+        <v>18042574</v>
       </c>
       <c r="B129" t="n">
         <v>9534</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>39480.8716087963</v>
+        <v>39480.95636574074</v>
       </c>
       <c r="D129" t="n">
-        <v>116.56628</v>
+        <v>116.51227</v>
       </c>
       <c r="E129" t="n">
-        <v>39.91428</v>
+        <v>39.91731</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>18042439</v>
+        <v>18042575</v>
       </c>
       <c r="B130" t="n">
         <v>9534</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>39480.87230324074</v>
+        <v>39480.95695601852</v>
       </c>
       <c r="D130" t="n">
-        <v>116.57086</v>
+        <v>116.51177</v>
       </c>
       <c r="E130" t="n">
-        <v>39.91373</v>
+        <v>39.92089</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>18042440</v>
+        <v>18042576</v>
       </c>
       <c r="B131" t="n">
         <v>9534</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>39480.87299768518</v>
+        <v>39480.95739583333</v>
       </c>
       <c r="D131" t="n">
-        <v>116.57187</v>
+        <v>116.5117</v>
       </c>
       <c r="E131" t="n">
-        <v>39.91545</v>
+        <v>39.92139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18042441</v>
+        <v>18042577</v>
       </c>
       <c r="B132" t="n">
         <v>9534</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>39480.87307870371</v>
+        <v>39480.95798611111</v>
       </c>
       <c r="D132" t="n">
-        <v>116.57205</v>
+        <v>116.51166</v>
       </c>
       <c r="E132" t="n">
-        <v>39.91601</v>
+        <v>39.9214</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>18042442</v>
+        <v>18042578</v>
       </c>
       <c r="B133" t="n">
         <v>9534</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>39480.87380787037</v>
+        <v>39480.958125</v>
       </c>
       <c r="D133" t="n">
-        <v>116.57154</v>
+        <v>116.51164</v>
       </c>
       <c r="E133" t="n">
-        <v>39.91899</v>
+        <v>39.92178</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>18042443</v>
+        <v>18042579</v>
       </c>
       <c r="B134" t="n">
         <v>9534</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>39480.87439814815</v>
+        <v>39480.95857638889</v>
       </c>
       <c r="D134" t="n">
-        <v>116.57194</v>
+        <v>116.51132</v>
       </c>
       <c r="E134" t="n">
-        <v>39.91931</v>
+        <v>39.92573</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>18042444</v>
+        <v>18042580</v>
       </c>
       <c r="B135" t="n">
         <v>9534</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>39480.87494212963</v>
+        <v>39480.95915509259</v>
       </c>
       <c r="D135" t="n">
-        <v>116.57222</v>
+        <v>116.51132</v>
       </c>
       <c r="E135" t="n">
-        <v>39.91898</v>
+        <v>39.93176</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>18042445</v>
+        <v>18042581</v>
       </c>
       <c r="B136" t="n">
         <v>9534</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>39480.87509259259</v>
+        <v>39480.95915509259</v>
       </c>
       <c r="D136" t="n">
-        <v>116.5722</v>
+        <v>116.51132</v>
       </c>
       <c r="E136" t="n">
-        <v>39.91905</v>
+        <v>39.93176</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>18042446</v>
+        <v>18042582</v>
       </c>
       <c r="B137" t="n">
         <v>9534</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>39480.87579861111</v>
+        <v>39480.95949074074</v>
       </c>
       <c r="D137" t="n">
-        <v>116.57215</v>
+        <v>116.51128</v>
       </c>
       <c r="E137" t="n">
-        <v>39.91919</v>
+        <v>39.93358</v>
       </c>
     </row>
     <row r="138">
@@ -7725,2124 +7725,2124 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>18042447</v>
+        <v>18042311</v>
       </c>
       <c r="B429" t="n">
         <v>9534</v>
       </c>
       <c r="C429" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.78951388889</v>
       </c>
       <c r="D429" t="n">
-        <v>116.57222</v>
+        <v>116.51125</v>
       </c>
       <c r="E429" t="n">
-        <v>39.91901</v>
+        <v>39.90647</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>18042448</v>
+        <v>18042312</v>
       </c>
       <c r="B430" t="n">
         <v>9534</v>
       </c>
       <c r="C430" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79010416667</v>
       </c>
       <c r="D430" t="n">
-        <v>116.57222</v>
+        <v>116.51904</v>
       </c>
       <c r="E430" t="n">
-        <v>39.91901</v>
+        <v>39.90744</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>18042449</v>
+        <v>18042313</v>
       </c>
       <c r="B431" t="n">
         <v>9534</v>
       </c>
       <c r="C431" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79077546296</v>
       </c>
       <c r="D431" t="n">
-        <v>116.57222</v>
+        <v>116.52318</v>
       </c>
       <c r="E431" t="n">
-        <v>39.91901</v>
+        <v>39.9082</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>18042450</v>
+        <v>18042314</v>
       </c>
       <c r="B432" t="n">
         <v>9534</v>
       </c>
       <c r="C432" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79148148148</v>
       </c>
       <c r="D432" t="n">
-        <v>116.57222</v>
+        <v>116.51684</v>
       </c>
       <c r="E432" t="n">
-        <v>39.91901</v>
+        <v>39.90768</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>18042451</v>
+        <v>18042315</v>
       </c>
       <c r="B433" t="n">
         <v>9534</v>
       </c>
       <c r="C433" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79217592593</v>
       </c>
       <c r="D433" t="n">
-        <v>116.57222</v>
+        <v>116.51568</v>
       </c>
       <c r="E433" t="n">
-        <v>39.91901</v>
+        <v>39.91348</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>18042452</v>
+        <v>18042316</v>
       </c>
       <c r="B434" t="n">
         <v>9534</v>
       </c>
       <c r="C434" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79219907407</v>
       </c>
       <c r="D434" t="n">
-        <v>116.57222</v>
+        <v>116.51568</v>
       </c>
       <c r="E434" t="n">
-        <v>39.91901</v>
+        <v>39.91357</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>18042453</v>
+        <v>18042317</v>
       </c>
       <c r="B435" t="n">
         <v>9534</v>
       </c>
       <c r="C435" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79291666667</v>
       </c>
       <c r="D435" t="n">
-        <v>116.57222</v>
+        <v>116.51523</v>
       </c>
       <c r="E435" t="n">
-        <v>39.91901</v>
+        <v>39.91534</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>18042454</v>
+        <v>18042318</v>
       </c>
       <c r="B436" t="n">
         <v>9534</v>
       </c>
       <c r="C436" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79324074074</v>
       </c>
       <c r="D436" t="n">
-        <v>116.57222</v>
+        <v>116.51527</v>
       </c>
       <c r="E436" t="n">
-        <v>39.91901</v>
+        <v>39.91537</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>18042455</v>
+        <v>18042319</v>
       </c>
       <c r="B437" t="n">
         <v>9534</v>
       </c>
       <c r="C437" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79357638889</v>
       </c>
       <c r="D437" t="n">
-        <v>116.57222</v>
+        <v>116.51526</v>
       </c>
       <c r="E437" t="n">
-        <v>39.91901</v>
+        <v>39.91556</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>18042456</v>
+        <v>18042320</v>
       </c>
       <c r="B438" t="n">
         <v>9534</v>
       </c>
       <c r="C438" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79427083334</v>
       </c>
       <c r="D438" t="n">
-        <v>116.57222</v>
+        <v>116.51163</v>
       </c>
       <c r="E438" t="n">
-        <v>39.91901</v>
+        <v>39.91539</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>18042457</v>
+        <v>18042321</v>
       </c>
       <c r="B439" t="n">
         <v>9534</v>
       </c>
       <c r="C439" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79490740741</v>
       </c>
       <c r="D439" t="n">
-        <v>116.57222</v>
+        <v>116.50618</v>
       </c>
       <c r="E439" t="n">
-        <v>39.91901</v>
+        <v>39.91506</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>18042458</v>
+        <v>18042322</v>
       </c>
       <c r="B440" t="n">
         <v>9534</v>
       </c>
       <c r="C440" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79549768518</v>
       </c>
       <c r="D440" t="n">
-        <v>116.57222</v>
+        <v>116.50502</v>
       </c>
       <c r="E440" t="n">
-        <v>39.91901</v>
+        <v>39.91482</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>18042459</v>
+        <v>18042323</v>
       </c>
       <c r="B441" t="n">
         <v>9534</v>
       </c>
       <c r="C441" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.7956712963</v>
       </c>
       <c r="D441" t="n">
-        <v>116.57222</v>
+        <v>116.50526</v>
       </c>
       <c r="E441" t="n">
-        <v>39.91901</v>
+        <v>39.91489</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>18042460</v>
+        <v>18042324</v>
       </c>
       <c r="B442" t="n">
         <v>9534</v>
       </c>
       <c r="C442" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79636574074</v>
       </c>
       <c r="D442" t="n">
-        <v>116.57222</v>
+        <v>116.51067</v>
       </c>
       <c r="E442" t="n">
-        <v>39.91901</v>
+        <v>39.91529</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>18042461</v>
+        <v>18042325</v>
       </c>
       <c r="B443" t="n">
         <v>9534</v>
       </c>
       <c r="C443" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79673611111</v>
       </c>
       <c r="D443" t="n">
-        <v>116.57222</v>
+        <v>116.51128</v>
       </c>
       <c r="E443" t="n">
-        <v>39.91901</v>
+        <v>39.9153</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>18042462</v>
+        <v>18042326</v>
       </c>
       <c r="B444" t="n">
         <v>9534</v>
       </c>
       <c r="C444" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79706018518</v>
       </c>
       <c r="D444" t="n">
-        <v>116.57222</v>
+        <v>116.51264</v>
       </c>
       <c r="E444" t="n">
-        <v>39.91901</v>
+        <v>39.91547</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>18042463</v>
+        <v>18042327</v>
       </c>
       <c r="B445" t="n">
         <v>9534</v>
       </c>
       <c r="C445" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.7977662037</v>
       </c>
       <c r="D445" t="n">
-        <v>116.57222</v>
+        <v>116.51559</v>
       </c>
       <c r="E445" t="n">
-        <v>39.91901</v>
+        <v>39.91348</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>18042464</v>
+        <v>18042328</v>
       </c>
       <c r="B446" t="n">
         <v>9534</v>
       </c>
       <c r="C446" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79789351852</v>
       </c>
       <c r="D446" t="n">
-        <v>116.57222</v>
+        <v>116.51589</v>
       </c>
       <c r="E446" t="n">
-        <v>39.91901</v>
+        <v>39.91239</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>18042465</v>
+        <v>18042329</v>
       </c>
       <c r="B447" t="n">
         <v>9534</v>
       </c>
       <c r="C447" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79848379629</v>
       </c>
       <c r="D447" t="n">
-        <v>116.57222</v>
+        <v>116.51669</v>
       </c>
       <c r="E447" t="n">
-        <v>39.91901</v>
+        <v>39.90786</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>18042466</v>
+        <v>18042330</v>
       </c>
       <c r="B448" t="n">
         <v>9534</v>
       </c>
       <c r="C448" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79915509259</v>
       </c>
       <c r="D448" t="n">
-        <v>116.57222</v>
+        <v>116.51139</v>
       </c>
       <c r="E448" t="n">
-        <v>39.91901</v>
+        <v>39.90677</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>18042467</v>
+        <v>18042331</v>
       </c>
       <c r="B449" t="n">
         <v>9534</v>
       </c>
       <c r="C449" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.79986111111</v>
       </c>
       <c r="D449" t="n">
-        <v>116.57222</v>
+        <v>116.50935</v>
       </c>
       <c r="E449" t="n">
-        <v>39.91901</v>
+        <v>39.90696</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>18042468</v>
+        <v>18042332</v>
       </c>
       <c r="B450" t="n">
         <v>9534</v>
       </c>
       <c r="C450" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.80055555556</v>
       </c>
       <c r="D450" t="n">
-        <v>116.57222</v>
+        <v>116.50943</v>
       </c>
       <c r="E450" t="n">
-        <v>39.91901</v>
+        <v>39.90691</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>18042469</v>
+        <v>18042333</v>
       </c>
       <c r="B451" t="n">
         <v>9534</v>
       </c>
       <c r="C451" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.80092592593</v>
       </c>
       <c r="D451" t="n">
-        <v>116.57222</v>
+        <v>116.50939</v>
       </c>
       <c r="E451" t="n">
-        <v>39.91901</v>
+        <v>39.90694</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>18042470</v>
+        <v>18042334</v>
       </c>
       <c r="B452" t="n">
         <v>9534</v>
       </c>
       <c r="C452" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.8016087963</v>
       </c>
       <c r="D452" t="n">
-        <v>116.57222</v>
+        <v>116.50518</v>
       </c>
       <c r="E452" t="n">
-        <v>39.91901</v>
+        <v>39.90716</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>18042471</v>
+        <v>18042335</v>
       </c>
       <c r="B453" t="n">
         <v>9534</v>
       </c>
       <c r="C453" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.80429398148</v>
       </c>
       <c r="D453" t="n">
-        <v>116.57222</v>
+        <v>116.50728</v>
       </c>
       <c r="E453" t="n">
-        <v>39.91901</v>
+        <v>39.915</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>18042472</v>
+        <v>18042336</v>
       </c>
       <c r="B454" t="n">
         <v>9534</v>
       </c>
       <c r="C454" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.80510416667</v>
       </c>
       <c r="D454" t="n">
-        <v>116.57222</v>
+        <v>116.511</v>
       </c>
       <c r="E454" t="n">
-        <v>39.91901</v>
+        <v>39.91524</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>18042473</v>
+        <v>18042337</v>
       </c>
       <c r="B455" t="n">
         <v>9534</v>
       </c>
       <c r="C455" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.80767361111</v>
       </c>
       <c r="D455" t="n">
-        <v>116.57222</v>
+        <v>116.51226</v>
       </c>
       <c r="E455" t="n">
-        <v>39.91901</v>
+        <v>39.91681</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>18042474</v>
+        <v>18042338</v>
       </c>
       <c r="B456" t="n">
         <v>9534</v>
       </c>
       <c r="C456" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.80859953703</v>
       </c>
       <c r="D456" t="n">
-        <v>116.57222</v>
+        <v>116.51182</v>
       </c>
       <c r="E456" t="n">
-        <v>39.91901</v>
+        <v>39.92097</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>18042475</v>
+        <v>18042339</v>
       </c>
       <c r="B457" t="n">
         <v>9534</v>
       </c>
       <c r="C457" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.8087962963</v>
       </c>
       <c r="D457" t="n">
-        <v>116.57222</v>
+        <v>116.51182</v>
       </c>
       <c r="E457" t="n">
-        <v>39.91901</v>
+        <v>39.92103</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>18042476</v>
+        <v>18042340</v>
       </c>
       <c r="B458" t="n">
         <v>9534</v>
       </c>
       <c r="C458" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81023148148</v>
       </c>
       <c r="D458" t="n">
-        <v>116.57222</v>
+        <v>116.51135</v>
       </c>
       <c r="E458" t="n">
-        <v>39.91901</v>
+        <v>39.92607</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>18042477</v>
+        <v>18042341</v>
       </c>
       <c r="B459" t="n">
         <v>9534</v>
       </c>
       <c r="C459" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81115740741</v>
       </c>
       <c r="D459" t="n">
-        <v>116.57222</v>
+        <v>116.50956</v>
       </c>
       <c r="E459" t="n">
-        <v>39.91901</v>
+        <v>39.93368</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>18042478</v>
+        <v>18042342</v>
       </c>
       <c r="B460" t="n">
         <v>9534</v>
       </c>
       <c r="C460" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81174768518</v>
       </c>
       <c r="D460" t="n">
-        <v>116.57222</v>
+        <v>116.5092</v>
       </c>
       <c r="E460" t="n">
-        <v>39.91901</v>
+        <v>39.93379</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>18042479</v>
+        <v>18042343</v>
       </c>
       <c r="B461" t="n">
         <v>9534</v>
       </c>
       <c r="C461" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81209490741</v>
       </c>
       <c r="D461" t="n">
-        <v>116.57222</v>
+        <v>116.51016</v>
       </c>
       <c r="E461" t="n">
-        <v>39.91901</v>
+        <v>39.93367</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>18042480</v>
+        <v>18042344</v>
       </c>
       <c r="B462" t="n">
         <v>9534</v>
       </c>
       <c r="C462" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81231481482</v>
       </c>
       <c r="D462" t="n">
-        <v>116.57222</v>
+        <v>116.51122</v>
       </c>
       <c r="E462" t="n">
-        <v>39.91901</v>
+        <v>39.93298</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>18042481</v>
+        <v>18042345</v>
       </c>
       <c r="B463" t="n">
         <v>9534</v>
       </c>
       <c r="C463" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81244212963</v>
       </c>
       <c r="D463" t="n">
-        <v>116.57222</v>
+        <v>116.51123</v>
       </c>
       <c r="E463" t="n">
-        <v>39.91901</v>
+        <v>39.93187</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>18042482</v>
+        <v>18042346</v>
       </c>
       <c r="B464" t="n">
         <v>9534</v>
       </c>
       <c r="C464" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81302083333</v>
       </c>
       <c r="D464" t="n">
-        <v>116.57222</v>
+        <v>116.51121</v>
       </c>
       <c r="E464" t="n">
-        <v>39.91901</v>
+        <v>39.9293</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>18042483</v>
+        <v>18042347</v>
       </c>
       <c r="B465" t="n">
         <v>9534</v>
       </c>
       <c r="C465" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81371527778</v>
       </c>
       <c r="D465" t="n">
-        <v>116.57222</v>
+        <v>116.51137</v>
       </c>
       <c r="E465" t="n">
-        <v>39.91901</v>
+        <v>39.92288</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>18042484</v>
+        <v>18042348</v>
       </c>
       <c r="B466" t="n">
         <v>9534</v>
       </c>
       <c r="C466" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81445601852</v>
       </c>
       <c r="D466" t="n">
-        <v>116.57222</v>
+        <v>116.51136</v>
       </c>
       <c r="E466" t="n">
-        <v>39.91901</v>
+        <v>39.92236</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>18042485</v>
+        <v>18042349</v>
       </c>
       <c r="B467" t="n">
         <v>9534</v>
       </c>
       <c r="C467" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81510416666</v>
       </c>
       <c r="D467" t="n">
-        <v>116.57222</v>
+        <v>116.51131</v>
       </c>
       <c r="E467" t="n">
-        <v>39.91901</v>
+        <v>39.92223</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>18042486</v>
+        <v>18042350</v>
       </c>
       <c r="B468" t="n">
         <v>9534</v>
       </c>
       <c r="C468" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81534722223</v>
       </c>
       <c r="D468" t="n">
-        <v>116.57222</v>
+        <v>116.51153</v>
       </c>
       <c r="E468" t="n">
-        <v>39.91901</v>
+        <v>39.9222</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>18042487</v>
+        <v>18042351</v>
       </c>
       <c r="B469" t="n">
         <v>9534</v>
       </c>
       <c r="C469" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.8155787037</v>
       </c>
       <c r="D469" t="n">
-        <v>116.57222</v>
+        <v>116.5116</v>
       </c>
       <c r="E469" t="n">
-        <v>39.91901</v>
+        <v>39.92256</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>18042488</v>
+        <v>18042352</v>
       </c>
       <c r="B470" t="n">
         <v>9534</v>
       </c>
       <c r="C470" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81697916667</v>
       </c>
       <c r="D470" t="n">
-        <v>116.57222</v>
+        <v>116.5114</v>
       </c>
       <c r="E470" t="n">
-        <v>39.91901</v>
+        <v>39.93624</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>18042489</v>
+        <v>18042353</v>
       </c>
       <c r="B471" t="n">
         <v>9534</v>
       </c>
       <c r="C471" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81895833334</v>
       </c>
       <c r="D471" t="n">
-        <v>116.57222</v>
+        <v>116.49801</v>
       </c>
       <c r="E471" t="n">
-        <v>39.91901</v>
+        <v>39.93549</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>18042490</v>
+        <v>18042354</v>
       </c>
       <c r="B472" t="n">
         <v>9534</v>
       </c>
       <c r="C472" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.81907407408</v>
       </c>
       <c r="D472" t="n">
-        <v>116.57222</v>
+        <v>116.49804</v>
       </c>
       <c r="E472" t="n">
-        <v>39.91901</v>
+        <v>39.93549</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>18042491</v>
+        <v>18042355</v>
       </c>
       <c r="B473" t="n">
         <v>9534</v>
       </c>
       <c r="C473" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.8209375</v>
       </c>
       <c r="D473" t="n">
-        <v>116.57222</v>
+        <v>116.49756</v>
       </c>
       <c r="E473" t="n">
-        <v>39.91901</v>
+        <v>39.93536</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>18042492</v>
+        <v>18042356</v>
       </c>
       <c r="B474" t="n">
         <v>9534</v>
       </c>
       <c r="C474" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.82256944444</v>
       </c>
       <c r="D474" t="n">
-        <v>116.57222</v>
+        <v>116.49696</v>
       </c>
       <c r="E474" t="n">
-        <v>39.91901</v>
+        <v>39.9351</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>18042493</v>
+        <v>18042357</v>
       </c>
       <c r="B475" t="n">
         <v>9534</v>
       </c>
       <c r="C475" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.82559027777</v>
       </c>
       <c r="D475" t="n">
-        <v>116.57222</v>
+        <v>116.49594</v>
       </c>
       <c r="E475" t="n">
-        <v>39.91901</v>
+        <v>39.93119</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>18042494</v>
+        <v>18042358</v>
       </c>
       <c r="B476" t="n">
         <v>9534</v>
       </c>
       <c r="C476" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.82605324074</v>
       </c>
       <c r="D476" t="n">
-        <v>116.57222</v>
+        <v>116.49796</v>
       </c>
       <c r="E476" t="n">
-        <v>39.91901</v>
+        <v>39.93028</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>18042495</v>
+        <v>18042359</v>
       </c>
       <c r="B477" t="n">
         <v>9534</v>
       </c>
       <c r="C477" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.8283912037</v>
       </c>
       <c r="D477" t="n">
-        <v>116.57222</v>
+        <v>116.50235</v>
       </c>
       <c r="E477" t="n">
-        <v>39.91901</v>
+        <v>39.92634</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>18042496</v>
+        <v>18042360</v>
       </c>
       <c r="B478" t="n">
         <v>9534</v>
       </c>
       <c r="C478" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.82914351852</v>
       </c>
       <c r="D478" t="n">
-        <v>116.57222</v>
+        <v>116.50289</v>
       </c>
       <c r="E478" t="n">
-        <v>39.91901</v>
+        <v>39.92535</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>18042497</v>
+        <v>18042361</v>
       </c>
       <c r="B479" t="n">
         <v>9534</v>
       </c>
       <c r="C479" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.82954861111</v>
       </c>
       <c r="D479" t="n">
-        <v>116.57222</v>
+        <v>116.50289</v>
       </c>
       <c r="E479" t="n">
-        <v>39.91901</v>
+        <v>39.92534</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>18042498</v>
+        <v>18042362</v>
       </c>
       <c r="B480" t="n">
         <v>9534</v>
       </c>
       <c r="C480" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.82983796296</v>
       </c>
       <c r="D480" t="n">
-        <v>116.57222</v>
+        <v>116.50285</v>
       </c>
       <c r="E480" t="n">
-        <v>39.91901</v>
+        <v>39.9245</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>18042499</v>
+        <v>18042363</v>
       </c>
       <c r="B481" t="n">
         <v>9534</v>
       </c>
       <c r="C481" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83054398148</v>
       </c>
       <c r="D481" t="n">
-        <v>116.57222</v>
+        <v>116.50281</v>
       </c>
       <c r="E481" t="n">
-        <v>39.91901</v>
+        <v>39.92395</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>18042500</v>
+        <v>18042364</v>
       </c>
       <c r="B482" t="n">
         <v>9534</v>
       </c>
       <c r="C482" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83101851852</v>
       </c>
       <c r="D482" t="n">
-        <v>116.57222</v>
+        <v>116.50281</v>
       </c>
       <c r="E482" t="n">
-        <v>39.91901</v>
+        <v>39.92398</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>18042501</v>
+        <v>18042365</v>
       </c>
       <c r="B483" t="n">
         <v>9534</v>
       </c>
       <c r="C483" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83159722222</v>
       </c>
       <c r="D483" t="n">
-        <v>116.57222</v>
+        <v>116.50172</v>
       </c>
       <c r="E483" t="n">
-        <v>39.91901</v>
+        <v>39.92208</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>18042502</v>
+        <v>18042366</v>
       </c>
       <c r="B484" t="n">
         <v>9534</v>
       </c>
       <c r="C484" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83159722222</v>
       </c>
       <c r="D484" t="n">
-        <v>116.57222</v>
+        <v>116.50172</v>
       </c>
       <c r="E484" t="n">
-        <v>39.91901</v>
+        <v>39.92208</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>18042503</v>
+        <v>18042367</v>
       </c>
       <c r="B485" t="n">
         <v>9534</v>
       </c>
       <c r="C485" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83193287037</v>
       </c>
       <c r="D485" t="n">
-        <v>116.57222</v>
+        <v>116.49919</v>
       </c>
       <c r="E485" t="n">
-        <v>39.91901</v>
+        <v>39.92196</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>18042504</v>
+        <v>18042368</v>
       </c>
       <c r="B486" t="n">
         <v>9534</v>
       </c>
       <c r="C486" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83263888889</v>
       </c>
       <c r="D486" t="n">
-        <v>116.57222</v>
+        <v>116.49555</v>
       </c>
       <c r="E486" t="n">
-        <v>39.91901</v>
+        <v>39.92185</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>18042505</v>
+        <v>18042369</v>
       </c>
       <c r="B487" t="n">
         <v>9534</v>
       </c>
       <c r="C487" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83304398148</v>
       </c>
       <c r="D487" t="n">
-        <v>116.57222</v>
+        <v>116.49292</v>
       </c>
       <c r="E487" t="n">
-        <v>39.91901</v>
+        <v>39.92187</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>18042506</v>
+        <v>18042370</v>
       </c>
       <c r="B488" t="n">
         <v>9534</v>
       </c>
       <c r="C488" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83333333334</v>
       </c>
       <c r="D488" t="n">
-        <v>116.57222</v>
+        <v>116.49071</v>
       </c>
       <c r="E488" t="n">
-        <v>39.91901</v>
+        <v>39.92181</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>18042507</v>
+        <v>18042371</v>
       </c>
       <c r="B489" t="n">
         <v>9534</v>
       </c>
       <c r="C489" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83396990741</v>
       </c>
       <c r="D489" t="n">
-        <v>116.57222</v>
+        <v>116.48305</v>
       </c>
       <c r="E489" t="n">
-        <v>39.91901</v>
+        <v>39.9217</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>18042508</v>
+        <v>18042372</v>
       </c>
       <c r="B490" t="n">
         <v>9534</v>
       </c>
       <c r="C490" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83456018518</v>
       </c>
       <c r="D490" t="n">
-        <v>116.57222</v>
+        <v>116.48031</v>
       </c>
       <c r="E490" t="n">
-        <v>39.91901</v>
+        <v>39.92172</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>18042509</v>
+        <v>18042373</v>
       </c>
       <c r="B491" t="n">
         <v>9534</v>
       </c>
       <c r="C491" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.8347337963</v>
       </c>
       <c r="D491" t="n">
-        <v>116.57222</v>
+        <v>116.48018</v>
       </c>
       <c r="E491" t="n">
-        <v>39.91901</v>
+        <v>39.9217</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>18042510</v>
+        <v>18042374</v>
       </c>
       <c r="B492" t="n">
         <v>9534</v>
       </c>
       <c r="C492" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.8347337963</v>
       </c>
       <c r="D492" t="n">
-        <v>116.57222</v>
+        <v>116.48018</v>
       </c>
       <c r="E492" t="n">
-        <v>39.91901</v>
+        <v>39.9217</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>18042511</v>
+        <v>18042375</v>
       </c>
       <c r="B493" t="n">
         <v>9534</v>
       </c>
       <c r="C493" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83519675926</v>
       </c>
       <c r="D493" t="n">
-        <v>116.57222</v>
+        <v>116.47997</v>
       </c>
       <c r="E493" t="n">
-        <v>39.91901</v>
+        <v>39.92173</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>18042512</v>
+        <v>18042376</v>
       </c>
       <c r="B494" t="n">
         <v>9534</v>
       </c>
       <c r="C494" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83587962963</v>
       </c>
       <c r="D494" t="n">
-        <v>116.57222</v>
+        <v>116.47911</v>
       </c>
       <c r="E494" t="n">
-        <v>39.91901</v>
+        <v>39.92181</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>18042513</v>
+        <v>18042377</v>
       </c>
       <c r="B495" t="n">
         <v>9534</v>
       </c>
       <c r="C495" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83657407408</v>
       </c>
       <c r="D495" t="n">
-        <v>116.57222</v>
+        <v>116.47941</v>
       </c>
       <c r="E495" t="n">
-        <v>39.91901</v>
+        <v>39.92166</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>18042514</v>
+        <v>18042378</v>
       </c>
       <c r="B496" t="n">
         <v>9534</v>
       </c>
       <c r="C496" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83700231482</v>
       </c>
       <c r="D496" t="n">
-        <v>116.57222</v>
+        <v>116.48339</v>
       </c>
       <c r="E496" t="n">
-        <v>39.91901</v>
+        <v>39.92142</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>18042515</v>
+        <v>18042379</v>
       </c>
       <c r="B497" t="n">
         <v>9534</v>
       </c>
       <c r="C497" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83758101852</v>
       </c>
       <c r="D497" t="n">
-        <v>116.57222</v>
+        <v>116.48362</v>
       </c>
       <c r="E497" t="n">
-        <v>39.91901</v>
+        <v>39.91596</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>18042516</v>
+        <v>18042380</v>
       </c>
       <c r="B498" t="n">
         <v>9534</v>
       </c>
       <c r="C498" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83796296296</v>
       </c>
       <c r="D498" t="n">
-        <v>116.57222</v>
+        <v>116.48361</v>
       </c>
       <c r="E498" t="n">
-        <v>39.91901</v>
+        <v>39.91292</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>18042517</v>
+        <v>18042381</v>
       </c>
       <c r="B499" t="n">
         <v>9534</v>
       </c>
       <c r="C499" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83865740741</v>
       </c>
       <c r="D499" t="n">
-        <v>116.57222</v>
+        <v>116.48293</v>
       </c>
       <c r="E499" t="n">
-        <v>39.91901</v>
+        <v>39.90678</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>18042518</v>
+        <v>18042382</v>
       </c>
       <c r="B500" t="n">
         <v>9534</v>
       </c>
       <c r="C500" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.83935185185</v>
       </c>
       <c r="D500" t="n">
-        <v>116.57222</v>
+        <v>116.48264</v>
       </c>
       <c r="E500" t="n">
-        <v>39.91901</v>
+        <v>39.90519</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>18042519</v>
+        <v>18042383</v>
       </c>
       <c r="B501" t="n">
         <v>9534</v>
       </c>
       <c r="C501" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.8400462963</v>
       </c>
       <c r="D501" t="n">
-        <v>116.57222</v>
+        <v>116.4889</v>
       </c>
       <c r="E501" t="n">
-        <v>39.91901</v>
+        <v>39.90649</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>18042520</v>
+        <v>18042384</v>
       </c>
       <c r="B502" t="n">
         <v>9534</v>
       </c>
       <c r="C502" s="2" t="n">
-        <v>39480.87635416666</v>
+        <v>39480.84037037037</v>
       </c>
       <c r="D502" t="n">
-        <v>116.57222</v>
+        <v>116.48908</v>
       </c>
       <c r="E502" t="n">
-        <v>39.91901</v>
+        <v>39.90651</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>18042521</v>
+        <v>18042385</v>
       </c>
       <c r="B503" t="n">
         <v>9534</v>
       </c>
       <c r="C503" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84096064815</v>
       </c>
       <c r="D503" t="n">
-        <v>116.57215</v>
+        <v>116.48992</v>
       </c>
       <c r="E503" t="n">
-        <v>39.9191</v>
+        <v>39.90653</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>18042522</v>
+        <v>18042386</v>
       </c>
       <c r="B504" t="n">
         <v>9534</v>
       </c>
       <c r="C504" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84143518518</v>
       </c>
       <c r="D504" t="n">
-        <v>116.57215</v>
+        <v>116.49351</v>
       </c>
       <c r="E504" t="n">
-        <v>39.9191</v>
+        <v>39.90654</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>18042523</v>
+        <v>18042387</v>
       </c>
       <c r="B505" t="n">
         <v>9534</v>
       </c>
       <c r="C505" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84282407408</v>
       </c>
       <c r="D505" t="n">
-        <v>116.57215</v>
+        <v>116.50922</v>
       </c>
       <c r="E505" t="n">
-        <v>39.9191</v>
+        <v>39.90633</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>18042524</v>
+        <v>18042388</v>
       </c>
       <c r="B506" t="n">
         <v>9534</v>
       </c>
       <c r="C506" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84305555555</v>
       </c>
       <c r="D506" t="n">
-        <v>116.57215</v>
+        <v>116.50946</v>
       </c>
       <c r="E506" t="n">
-        <v>39.9191</v>
+        <v>39.90635</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>18042525</v>
+        <v>18042389</v>
       </c>
       <c r="B507" t="n">
         <v>9534</v>
       </c>
       <c r="C507" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84351851852</v>
       </c>
       <c r="D507" t="n">
-        <v>116.57215</v>
+        <v>116.51474</v>
       </c>
       <c r="E507" t="n">
-        <v>39.9191</v>
+        <v>39.9066</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>18042526</v>
+        <v>18042390</v>
       </c>
       <c r="B508" t="n">
         <v>9534</v>
       </c>
       <c r="C508" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84375</v>
       </c>
       <c r="D508" t="n">
-        <v>116.57215</v>
+        <v>116.51769</v>
       </c>
       <c r="E508" t="n">
-        <v>39.9191</v>
+        <v>39.9072</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>18042527</v>
+        <v>18042391</v>
       </c>
       <c r="B509" t="n">
         <v>9534</v>
       </c>
       <c r="C509" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.8443287037</v>
       </c>
       <c r="D509" t="n">
-        <v>116.57215</v>
+        <v>116.52234</v>
       </c>
       <c r="E509" t="n">
-        <v>39.9191</v>
+        <v>39.90799</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>18042528</v>
+        <v>18042392</v>
       </c>
       <c r="B510" t="n">
         <v>9534</v>
       </c>
       <c r="C510" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84490740741</v>
       </c>
       <c r="D510" t="n">
-        <v>116.57215</v>
+        <v>116.52253</v>
       </c>
       <c r="E510" t="n">
-        <v>39.9191</v>
+        <v>39.90853</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>18042529</v>
+        <v>18042393</v>
       </c>
       <c r="B511" t="n">
         <v>9534</v>
       </c>
       <c r="C511" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84548611111</v>
       </c>
       <c r="D511" t="n">
-        <v>116.57215</v>
+        <v>116.51757</v>
       </c>
       <c r="E511" t="n">
-        <v>39.9191</v>
+        <v>39.90778</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>18042530</v>
+        <v>18042394</v>
       </c>
       <c r="B512" t="n">
         <v>9534</v>
       </c>
       <c r="C512" s="2" t="n">
-        <v>39480.91690972223</v>
+        <v>39480.84584490741</v>
       </c>
       <c r="D512" t="n">
-        <v>116.57215</v>
+        <v>116.51649</v>
       </c>
       <c r="E512" t="n">
-        <v>39.9191</v>
+        <v>39.90941</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>18042531</v>
+        <v>18042395</v>
       </c>
       <c r="B513" t="n">
         <v>9534</v>
       </c>
       <c r="C513" s="2" t="n">
-        <v>39480.93530092593</v>
+        <v>39480.84630787037</v>
       </c>
       <c r="D513" t="n">
-        <v>116.57211</v>
+        <v>116.51567</v>
       </c>
       <c r="E513" t="n">
-        <v>39.91893</v>
+        <v>39.91354</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>18042532</v>
+        <v>18042396</v>
       </c>
       <c r="B514" t="n">
         <v>9534</v>
       </c>
       <c r="C514" s="2" t="n">
-        <v>39480.93564814814</v>
+        <v>39480.84689814815</v>
       </c>
       <c r="D514" t="n">
-        <v>116.57144</v>
+        <v>116.5155</v>
       </c>
       <c r="E514" t="n">
-        <v>39.91829</v>
+        <v>39.91416</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>18042533</v>
+        <v>18042397</v>
       </c>
       <c r="B515" t="n">
         <v>9534</v>
       </c>
       <c r="C515" s="2" t="n">
-        <v>39480.93564814814</v>
+        <v>39480.84700231482</v>
       </c>
       <c r="D515" t="n">
-        <v>116.57144</v>
+        <v>116.51553</v>
       </c>
       <c r="E515" t="n">
-        <v>39.91829</v>
+        <v>39.91443</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>18042534</v>
+        <v>18042398</v>
       </c>
       <c r="B516" t="n">
         <v>9534</v>
       </c>
       <c r="C516" s="2" t="n">
-        <v>39480.93625</v>
+        <v>39480.84724537037</v>
       </c>
       <c r="D516" t="n">
-        <v>116.57198</v>
+        <v>116.51552</v>
       </c>
       <c r="E516" t="n">
-        <v>39.91588</v>
+        <v>39.91491</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>18042535</v>
+        <v>18042399</v>
       </c>
       <c r="B517" t="n">
         <v>9534</v>
       </c>
       <c r="C517" s="2" t="n">
-        <v>39480.93670138889</v>
+        <v>39480.84782407407</v>
       </c>
       <c r="D517" t="n">
-        <v>116.57118</v>
+        <v>116.51537</v>
       </c>
       <c r="E517" t="n">
-        <v>39.91392</v>
+        <v>39.91492</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>18042536</v>
+        <v>18042400</v>
       </c>
       <c r="B518" t="n">
         <v>9534</v>
       </c>
       <c r="C518" s="2" t="n">
-        <v>39480.93739583333</v>
+        <v>39480.84796296297</v>
       </c>
       <c r="D518" t="n">
-        <v>116.57084</v>
+        <v>116.51541</v>
       </c>
       <c r="E518" t="n">
-        <v>39.91335</v>
+        <v>39.91493</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>18042537</v>
+        <v>18042401</v>
       </c>
       <c r="B519" t="n">
         <v>9534</v>
       </c>
       <c r="C519" s="2" t="n">
-        <v>39480.93785879629</v>
+        <v>39480.84851851852</v>
       </c>
       <c r="D519" t="n">
-        <v>116.57076</v>
+        <v>116.51506</v>
       </c>
       <c r="E519" t="n">
-        <v>39.91063</v>
+        <v>39.9163</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>18042538</v>
+        <v>18042402</v>
       </c>
       <c r="B520" t="n">
         <v>9534</v>
       </c>
       <c r="C520" s="2" t="n">
-        <v>39480.93832175926</v>
+        <v>39480.84912037037</v>
       </c>
       <c r="D520" t="n">
-        <v>116.56744</v>
+        <v>116.51501</v>
       </c>
       <c r="E520" t="n">
-        <v>39.90905</v>
+        <v>39.92074</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>18042539</v>
+        <v>18042403</v>
       </c>
       <c r="B521" t="n">
         <v>9534</v>
       </c>
       <c r="C521" s="2" t="n">
-        <v>39480.93890046296</v>
+        <v>39480.84934027777</v>
       </c>
       <c r="D521" t="n">
-        <v>116.56088</v>
+        <v>116.51499</v>
       </c>
       <c r="E521" t="n">
-        <v>39.90862</v>
+        <v>39.92168</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>18042540</v>
+        <v>18042404</v>
       </c>
       <c r="B522" t="n">
         <v>9534</v>
       </c>
       <c r="C522" s="2" t="n">
-        <v>39480.93949074074</v>
+        <v>39480.84980324074</v>
       </c>
       <c r="D522" t="n">
-        <v>116.55402</v>
+        <v>116.51495</v>
       </c>
       <c r="E522" t="n">
-        <v>39.90853</v>
+        <v>39.92175</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>18042541</v>
+        <v>18042405</v>
       </c>
       <c r="B523" t="n">
         <v>9534</v>
       </c>
       <c r="C523" s="2" t="n">
-        <v>39480.94018518519</v>
+        <v>39480.85038194444</v>
       </c>
       <c r="D523" t="n">
-        <v>116.54614</v>
+        <v>116.5128</v>
       </c>
       <c r="E523" t="n">
-        <v>39.90845</v>
+        <v>39.92203</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>18042542</v>
+        <v>18042406</v>
       </c>
       <c r="B524" t="n">
         <v>9534</v>
       </c>
       <c r="C524" s="2" t="n">
-        <v>39480.9408912037</v>
+        <v>39480.85049768518</v>
       </c>
       <c r="D524" t="n">
-        <v>116.53917</v>
+        <v>116.51182</v>
       </c>
       <c r="E524" t="n">
-        <v>39.90984</v>
+        <v>39.92204</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>18042543</v>
+        <v>18042407</v>
       </c>
       <c r="B525" t="n">
         <v>9534</v>
       </c>
       <c r="C525" s="2" t="n">
-        <v>39480.94099537037</v>
+        <v>39480.85074074074</v>
       </c>
       <c r="D525" t="n">
-        <v>116.53798</v>
+        <v>116.51132</v>
       </c>
       <c r="E525" t="n">
-        <v>39.90983</v>
+        <v>39.92384</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>18042544</v>
+        <v>18042408</v>
       </c>
       <c r="B526" t="n">
         <v>9534</v>
       </c>
       <c r="C526" s="2" t="n">
-        <v>39480.9413425926</v>
+        <v>39480.85143518518</v>
       </c>
       <c r="D526" t="n">
-        <v>116.53434</v>
+        <v>116.51131</v>
       </c>
       <c r="E526" t="n">
-        <v>39.90875</v>
+        <v>39.9308</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>18042545</v>
+        <v>18042409</v>
       </c>
       <c r="B527" t="n">
         <v>9534</v>
       </c>
       <c r="C527" s="2" t="n">
-        <v>39480.94172453704</v>
+        <v>39480.85201388889</v>
       </c>
       <c r="D527" t="n">
-        <v>116.52961</v>
+        <v>116.50988</v>
       </c>
       <c r="E527" t="n">
-        <v>39.90854</v>
+        <v>39.93364</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>18042546</v>
+        <v>18042410</v>
       </c>
       <c r="B528" t="n">
         <v>9534</v>
       </c>
       <c r="C528" s="2" t="n">
-        <v>39480.94228009259</v>
+        <v>39480.85364583333</v>
       </c>
       <c r="D528" t="n">
-        <v>116.52472</v>
+        <v>116.51105</v>
       </c>
       <c r="E528" t="n">
-        <v>39.90862</v>
+        <v>39.93362</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>18042547</v>
+        <v>18042411</v>
       </c>
       <c r="B529" t="n">
         <v>9534</v>
       </c>
       <c r="C529" s="2" t="n">
-        <v>39480.94228009259</v>
+        <v>39480.85399305556</v>
       </c>
       <c r="D529" t="n">
-        <v>116.52472</v>
+        <v>116.51127</v>
       </c>
       <c r="E529" t="n">
-        <v>39.90862</v>
+        <v>39.93143</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>18042548</v>
+        <v>18042412</v>
       </c>
       <c r="B530" t="n">
         <v>9534</v>
       </c>
       <c r="C530" s="2" t="n">
-        <v>39480.94298611111</v>
+        <v>39480.85493055556</v>
       </c>
       <c r="D530" t="n">
-        <v>116.52239</v>
+        <v>116.51129</v>
       </c>
       <c r="E530" t="n">
-        <v>39.91164</v>
+        <v>39.92414</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>18042549</v>
+        <v>18042413</v>
       </c>
       <c r="B531" t="n">
         <v>9534</v>
       </c>
       <c r="C531" s="2" t="n">
-        <v>39480.94368055555</v>
+        <v>39480.85576388889</v>
       </c>
       <c r="D531" t="n">
-        <v>116.51625</v>
+        <v>116.51145</v>
       </c>
       <c r="E531" t="n">
-        <v>39.9112</v>
+        <v>39.92266</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>18042550</v>
+        <v>18042414</v>
       </c>
       <c r="B532" t="n">
         <v>9534</v>
       </c>
       <c r="C532" s="2" t="n">
-        <v>39480.94460648148</v>
+        <v>39480.85631944444</v>
       </c>
       <c r="D532" t="n">
-        <v>116.51648</v>
+        <v>116.51159</v>
       </c>
       <c r="E532" t="n">
-        <v>39.90933</v>
+        <v>39.9222</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>18042551</v>
+        <v>18042415</v>
       </c>
       <c r="B533" t="n">
         <v>9534</v>
       </c>
       <c r="C533" s="2" t="n">
-        <v>39480.94483796296</v>
+        <v>39480.85701388889</v>
       </c>
       <c r="D533" t="n">
-        <v>116.51638</v>
+        <v>116.5115</v>
       </c>
       <c r="E533" t="n">
-        <v>39.90936</v>
+        <v>39.92222</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>18042552</v>
+        <v>18042416</v>
       </c>
       <c r="B534" t="n">
         <v>9534</v>
       </c>
       <c r="C534" s="2" t="n">
-        <v>39480.94508101852</v>
+        <v>39480.85760416667</v>
       </c>
       <c r="D534" t="n">
-        <v>116.51649</v>
+        <v>116.51162</v>
       </c>
       <c r="E534" t="n">
-        <v>39.90933</v>
+        <v>39.9221</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>18042553</v>
+        <v>18042417</v>
       </c>
       <c r="B535" t="n">
         <v>9534</v>
       </c>
       <c r="C535" s="2" t="n">
-        <v>39480.94577546296</v>
+        <v>39480.85774305555</v>
       </c>
       <c r="D535" t="n">
-        <v>116.5164</v>
+        <v>116.51223</v>
       </c>
       <c r="E535" t="n">
-        <v>39.90907</v>
+        <v>39.92182</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>18042554</v>
+        <v>18042418</v>
       </c>
       <c r="B536" t="n">
         <v>9534</v>
       </c>
       <c r="C536" s="2" t="n">
-        <v>39480.94646990741</v>
+        <v>39480.85841435185</v>
       </c>
       <c r="D536" t="n">
-        <v>116.51646</v>
+        <v>116.51643</v>
       </c>
       <c r="E536" t="n">
-        <v>39.9091</v>
+        <v>39.92258</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>18042555</v>
+        <v>18042419</v>
       </c>
       <c r="B537" t="n">
         <v>9534</v>
       </c>
       <c r="C537" s="2" t="n">
-        <v>39480.94704861111</v>
+        <v>39480.85841435185</v>
       </c>
       <c r="D537" t="n">
-        <v>116.51647</v>
+        <v>116.51643</v>
       </c>
       <c r="E537" t="n">
-        <v>39.90919</v>
+        <v>39.92258</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>18042556</v>
+        <v>18042420</v>
       </c>
       <c r="B538" t="n">
         <v>9534</v>
       </c>
       <c r="C538" s="2" t="n">
-        <v>39480.94763888889</v>
+        <v>39480.85912037037</v>
       </c>
       <c r="D538" t="n">
-        <v>116.51643</v>
+        <v>116.52419</v>
       </c>
       <c r="E538" t="n">
-        <v>39.90914</v>
+        <v>39.92247</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>18042557</v>
+        <v>18042421</v>
       </c>
       <c r="B539" t="n">
         <v>9534</v>
       </c>
       <c r="C539" s="2" t="n">
-        <v>39480.94787037037</v>
+        <v>39480.85934027778</v>
       </c>
       <c r="D539" t="n">
-        <v>116.51642</v>
+        <v>116.52545</v>
       </c>
       <c r="E539" t="n">
-        <v>39.90924</v>
+        <v>39.92239</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>18042558</v>
+        <v>18042422</v>
       </c>
       <c r="B540" t="n">
         <v>9534</v>
       </c>
       <c r="C540" s="2" t="n">
-        <v>39480.94833333333</v>
+        <v>39480.86097222222</v>
       </c>
       <c r="D540" t="n">
-        <v>116.51639</v>
+        <v>116.54653</v>
       </c>
       <c r="E540" t="n">
-        <v>39.90919</v>
+        <v>39.92262</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>18042559</v>
+        <v>18042423</v>
       </c>
       <c r="B541" t="n">
         <v>9534</v>
       </c>
       <c r="C541" s="2" t="n">
-        <v>39480.94856481482</v>
+        <v>39480.86167824074</v>
       </c>
       <c r="D541" t="n">
-        <v>116.51643</v>
+        <v>116.55144</v>
       </c>
       <c r="E541" t="n">
-        <v>39.90919</v>
+        <v>39.92276</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>18042560</v>
+        <v>18042424</v>
       </c>
       <c r="B542" t="n">
         <v>9534</v>
       </c>
       <c r="C542" s="2" t="n">
-        <v>39480.94927083333</v>
+        <v>39480.86435185185</v>
       </c>
       <c r="D542" t="n">
-        <v>116.51644</v>
+        <v>116.55718</v>
       </c>
       <c r="E542" t="n">
-        <v>39.90916</v>
+        <v>39.91463</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>18042561</v>
+        <v>18042425</v>
       </c>
       <c r="B543" t="n">
         <v>9534</v>
       </c>
       <c r="C543" s="2" t="n">
-        <v>39480.94996527778</v>
+        <v>39480.86446759259</v>
       </c>
       <c r="D543" t="n">
-        <v>116.51649</v>
+        <v>116.55719</v>
       </c>
       <c r="E543" t="n">
-        <v>39.90918</v>
+        <v>39.91467</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>18042562</v>
+        <v>18042426</v>
       </c>
       <c r="B544" t="n">
         <v>9534</v>
       </c>
       <c r="C544" s="2" t="n">
-        <v>39480.95045138889</v>
+        <v>39480.86446759259</v>
       </c>
       <c r="D544" t="n">
-        <v>116.51652</v>
+        <v>116.55719</v>
       </c>
       <c r="E544" t="n">
-        <v>39.90905</v>
+        <v>39.91467</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>18042563</v>
+        <v>18042427</v>
       </c>
       <c r="B545" t="n">
         <v>9534</v>
       </c>
       <c r="C545" s="2" t="n">
-        <v>39480.95104166667</v>
+        <v>39480.86601851852</v>
       </c>
       <c r="D545" t="n">
-        <v>116.51488</v>
+        <v>116.55646</v>
       </c>
       <c r="E545" t="n">
-        <v>39.90728</v>
+        <v>39.911</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>18042564</v>
+        <v>18042428</v>
       </c>
       <c r="B546" t="n">
         <v>9534</v>
       </c>
       <c r="C546" s="2" t="n">
-        <v>39480.95136574074</v>
+        <v>39480.86671296296</v>
       </c>
       <c r="D546" t="n">
-        <v>116.5113</v>
+        <v>116.55667</v>
       </c>
       <c r="E546" t="n">
-        <v>39.90677</v>
+        <v>39.90883</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>18042565</v>
+        <v>18042429</v>
       </c>
       <c r="B547" t="n">
         <v>9534</v>
       </c>
       <c r="C547" s="2" t="n">
-        <v>39480.95184027778</v>
+        <v>39480.86712962963</v>
       </c>
       <c r="D547" t="n">
-        <v>116.50819</v>
+        <v>116.55419</v>
       </c>
       <c r="E547" t="n">
-        <v>39.90687</v>
+        <v>39.9085</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>18042566</v>
+        <v>18042430</v>
       </c>
       <c r="B548" t="n">
         <v>9534</v>
       </c>
       <c r="C548" s="2" t="n">
-        <v>39480.95253472222</v>
+        <v>39480.86770833333</v>
       </c>
       <c r="D548" t="n">
-        <v>116.50812</v>
+        <v>116.54883</v>
       </c>
       <c r="E548" t="n">
-        <v>39.90825</v>
+        <v>39.90865</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>18042567</v>
+        <v>18042431</v>
       </c>
       <c r="B549" t="n">
         <v>9534</v>
       </c>
       <c r="C549" s="2" t="n">
-        <v>39480.95322916667</v>
+        <v>39480.86811342592</v>
       </c>
       <c r="D549" t="n">
-        <v>116.50619</v>
+        <v>116.54858</v>
       </c>
       <c r="E549" t="n">
-        <v>39.91121</v>
+        <v>39.91099</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>18042568</v>
+        <v>18042432</v>
       </c>
       <c r="B550" t="n">
         <v>9534</v>
       </c>
       <c r="C550" s="2" t="n">
-        <v>39480.95392361111</v>
+        <v>39480.86880787037</v>
       </c>
       <c r="D550" t="n">
-        <v>116.50476</v>
+        <v>116.54819</v>
       </c>
       <c r="E550" t="n">
-        <v>39.91316</v>
+        <v>39.91445</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>18042569</v>
+        <v>18042433</v>
       </c>
       <c r="B551" t="n">
         <v>9534</v>
       </c>
       <c r="C551" s="2" t="n">
-        <v>39480.95451388889</v>
+        <v>39480.86951388889</v>
       </c>
       <c r="D551" t="n">
-        <v>116.50464</v>
+        <v>116.54838</v>
       </c>
       <c r="E551" t="n">
-        <v>39.91473</v>
+        <v>39.91482</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>18042570</v>
+        <v>18042434</v>
       </c>
       <c r="B552" t="n">
         <v>9534</v>
       </c>
       <c r="C552" s="2" t="n">
-        <v>39480.95465277778</v>
+        <v>39480.87006944444</v>
       </c>
       <c r="D552" t="n">
-        <v>116.50515</v>
+        <v>116.55349</v>
       </c>
       <c r="E552" t="n">
-        <v>39.9148</v>
+        <v>39.91488</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>18042571</v>
+        <v>18042435</v>
       </c>
       <c r="B553" t="n">
         <v>9534</v>
       </c>
       <c r="C553" s="2" t="n">
-        <v>39480.95484953704</v>
+        <v>39480.87064814815</v>
       </c>
       <c r="D553" t="n">
-        <v>116.50656</v>
+        <v>116.55778</v>
       </c>
       <c r="E553" t="n">
         <v>39.91497</v>
@@ -9850,189 +9850,189 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>18042572</v>
+        <v>18042436</v>
       </c>
       <c r="B554" t="n">
         <v>9534</v>
       </c>
       <c r="C554" s="2" t="n">
-        <v>39480.95542824074</v>
+        <v>39480.87090277778</v>
       </c>
       <c r="D554" t="n">
-        <v>116.51115</v>
+        <v>116.56023</v>
       </c>
       <c r="E554" t="n">
-        <v>39.91543</v>
+        <v>39.9148</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>18042573</v>
+        <v>18042437</v>
       </c>
       <c r="B555" t="n">
         <v>9534</v>
       </c>
       <c r="C555" s="2" t="n">
-        <v>39480.95600694444</v>
+        <v>39480.87144675926</v>
       </c>
       <c r="D555" t="n">
-        <v>116.51228</v>
+        <v>116.56487</v>
       </c>
       <c r="E555" t="n">
-        <v>39.91569</v>
+        <v>39.91446</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>18042574</v>
+        <v>18042438</v>
       </c>
       <c r="B556" t="n">
         <v>9534</v>
       </c>
       <c r="C556" s="2" t="n">
-        <v>39480.95636574074</v>
+        <v>39480.8716087963</v>
       </c>
       <c r="D556" t="n">
-        <v>116.51227</v>
+        <v>116.56628</v>
       </c>
       <c r="E556" t="n">
-        <v>39.91731</v>
+        <v>39.91428</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>18042575</v>
+        <v>18042439</v>
       </c>
       <c r="B557" t="n">
         <v>9534</v>
       </c>
       <c r="C557" s="2" t="n">
-        <v>39480.95695601852</v>
+        <v>39480.87230324074</v>
       </c>
       <c r="D557" t="n">
-        <v>116.51177</v>
+        <v>116.57086</v>
       </c>
       <c r="E557" t="n">
-        <v>39.92089</v>
+        <v>39.91373</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>18042576</v>
+        <v>18042440</v>
       </c>
       <c r="B558" t="n">
         <v>9534</v>
       </c>
       <c r="C558" s="2" t="n">
-        <v>39480.95739583333</v>
+        <v>39480.87299768518</v>
       </c>
       <c r="D558" t="n">
-        <v>116.5117</v>
+        <v>116.57187</v>
       </c>
       <c r="E558" t="n">
-        <v>39.92139</v>
+        <v>39.91545</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>18042577</v>
+        <v>18042441</v>
       </c>
       <c r="B559" t="n">
         <v>9534</v>
       </c>
       <c r="C559" s="2" t="n">
-        <v>39480.95798611111</v>
+        <v>39480.87307870371</v>
       </c>
       <c r="D559" t="n">
-        <v>116.51166</v>
+        <v>116.57205</v>
       </c>
       <c r="E559" t="n">
-        <v>39.9214</v>
+        <v>39.91601</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>18042578</v>
+        <v>18042442</v>
       </c>
       <c r="B560" t="n">
         <v>9534</v>
       </c>
       <c r="C560" s="2" t="n">
-        <v>39480.958125</v>
+        <v>39480.87380787037</v>
       </c>
       <c r="D560" t="n">
-        <v>116.51164</v>
+        <v>116.57154</v>
       </c>
       <c r="E560" t="n">
-        <v>39.92178</v>
+        <v>39.91899</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>18042579</v>
+        <v>18042443</v>
       </c>
       <c r="B561" t="n">
         <v>9534</v>
       </c>
       <c r="C561" s="2" t="n">
-        <v>39480.95857638889</v>
+        <v>39480.87439814815</v>
       </c>
       <c r="D561" t="n">
-        <v>116.51132</v>
+        <v>116.57194</v>
       </c>
       <c r="E561" t="n">
-        <v>39.92573</v>
+        <v>39.91931</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>18042580</v>
+        <v>18042444</v>
       </c>
       <c r="B562" t="n">
         <v>9534</v>
       </c>
       <c r="C562" s="2" t="n">
-        <v>39480.95915509259</v>
+        <v>39480.87494212963</v>
       </c>
       <c r="D562" t="n">
-        <v>116.51132</v>
+        <v>116.57222</v>
       </c>
       <c r="E562" t="n">
-        <v>39.93176</v>
+        <v>39.91898</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>18042581</v>
+        <v>18042445</v>
       </c>
       <c r="B563" t="n">
         <v>9534</v>
       </c>
       <c r="C563" s="2" t="n">
-        <v>39480.95915509259</v>
+        <v>39480.87509259259</v>
       </c>
       <c r="D563" t="n">
-        <v>116.51132</v>
+        <v>116.5722</v>
       </c>
       <c r="E563" t="n">
-        <v>39.93176</v>
+        <v>39.91905</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>18042582</v>
+        <v>18042446</v>
       </c>
       <c r="B564" t="n">
         <v>9534</v>
       </c>
       <c r="C564" s="2" t="n">
-        <v>39480.95949074074</v>
+        <v>39480.87579861111</v>
       </c>
       <c r="D564" t="n">
-        <v>116.51128</v>
+        <v>116.57215</v>
       </c>
       <c r="E564" t="n">
-        <v>39.93358</v>
+        <v>39.91919</v>
       </c>
     </row>
   </sheetData>
